--- a/pred_ohlcv/54_21/2020-01-22 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 DASH ohlcv.xlsx
@@ -3148,7 +3148,7 @@
         <v>335.4954394000001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>363.8379394000001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>356.0091394000001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>355.9995008500001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>310.6193008500001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>276.1308008500001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>283.4055008500001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>272.4055008500001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>217.6312008500001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>225.9683008500001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>230.0636008500001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>234.3791008500002</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>187.7131102300002</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>178.5839960800002</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>181.0238960800002</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>181.1971679400002</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>202.7594299100002</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>190.3195299100002</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>210.9462299100002</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1289.26112991</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1292.05102991</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1291.54112991</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1291.54112991</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1289.90362991</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1292.54122991</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1291.76922991</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1291.76922991</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1286.70702216</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1135.78192444</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1135.78192444</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1160.27942444</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1160.27942444</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1162.277124440001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1163.560424440001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1174.881624440001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1176.333324440001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1180.363824440001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1180.336324440001</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1181.813524440001</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1186.823524440001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1190.181324440001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1226.518824440001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1196.383001370001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1195.383001370001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1188.145501370001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1189.680301370001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1188.680301370001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1183.680301370001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1153.680301370001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1155.715201370001</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1155.132601370001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1154.626001370001</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1137.927520120001</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1137.941620120001</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1142.255565940001</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1136.532665940001</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1075.477065940001</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1109.949120120001</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1109.933120120001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1112.380720120001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1112.376020120001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1109.677382510001</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1081.317982510001</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1061.354211160001</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1061.361211160001</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1061.512311160001</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1048.160211160001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1048.206400530001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1049.291800530001</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1048.291800530001</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1037.639100530001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1060.823026340001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1059.208126340001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1058.889022090001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1058.656922090001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>318.84071819</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>320.24601819</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>320.24597045</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>320.73197045</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>320.73197045</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>532.0467853300001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>537.2656853300001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>335.4954394000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>363.8379394000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>283.4055008500001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>272.4055008500001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>217.6312008500001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>225.9683008500001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>230.0636008500001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>234.3791008500002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>211.4771008500002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>211.4592820900002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>207.9655820900002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>187.7131102300002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>187.7131102300002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>183.6539960800002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>178.5839960800002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>181.0238960800002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>181.1971679400002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>214.9963631400002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>248.6762631400002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>254.9290631400002</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>258.9620299100002</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>259.0981299100002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>202.7594299100002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>190.3195299100002</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>210.9462299100002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>231.9462299100002</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1285.47892991</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1289.26112991</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1292.05102991</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1291.54112991</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1291.54112991</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1289.90362991</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1292.54122991</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1291.76922991</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1291.76922991</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1286.70702216</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1135.78192444</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1135.78192444</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1160.27942444</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1160.27942444</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1162.277124440001</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1163.560424440001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1174.881624440001</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1176.333324440001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1180.363824440001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1180.336324440001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1181.813524440001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1181.813524440001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1190.181324440001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1226.518824440001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1196.383001370001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1195.383001370001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1188.145501370001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1189.680301370001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1188.680301370001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1183.680301370001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1153.680301370001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1155.715201370001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1137.927520120001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1137.941620120001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1142.255565940001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1136.532665940001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1075.477065940001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1076.273065940001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1081.388820120001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1109.949120120001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1109.933120120001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1112.380720120001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1112.376020120001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1109.677382510001</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1061.354211160001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1061.361211160001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1061.512311160001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1048.160211160001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1048.206400530001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1049.291800530001</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1048.291800530001</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1037.639100530001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1060.823026340001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1059.208126340001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1058.889022090001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1058.656922090001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
